--- a/test/files/example_espp.xlsx
+++ b/test/files/example_espp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC1FBDA-4B54-5F4C-870D-774320F74B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D811CDA-6CDF-194A-9E47-D8BE27591B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="buy_orders" sheetId="5" r:id="rId4"/>
     <sheet name="sell_orders" sheetId="3" r:id="rId5"/>
     <sheet name="currency_conversions" sheetId="4" r:id="rId6"/>
-    <sheet name="currency_movements" sheetId="10" r:id="rId7"/>
+    <sheet name="money_transfers" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1887F8-5930-2F43-BE23-6AD91AA8E6F5}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/test/files/example_espp.xlsx
+++ b/test/files/example_espp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D811CDA-6CDF-194A-9E47-D8BE27591B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342CB90-007E-1845-84D9-78A199109045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -92,9 +92,6 @@
     <t>source_currency</t>
   </si>
   <si>
-    <t>foreign_amount</t>
-  </si>
-  <si>
     <t>source_fees</t>
   </si>
   <si>
@@ -102,6 +99,15 @@
   </si>
   <si>
     <t>buy_date</t>
+  </si>
+  <si>
+    <t>source_amount</t>
+  </si>
+  <si>
+    <t>target_amount</t>
+  </si>
+  <si>
+    <t>target_fees</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -436,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -513,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -646,9 +652,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -656,24 +662,30 @@
     <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1887F8-5930-2F43-BE23-6AD91AA8E6F5}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -695,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>7</v>
@@ -707,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/test/files/example_espp.xlsx
+++ b/test/files/example_espp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342CB90-007E-1845-84D9-78A199109045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6CD5F9-D80D-9B4C-BF71-37ACBDD728A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -92,9 +92,6 @@
     <t>source_currency</t>
   </si>
   <si>
-    <t>source_fees</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -107,7 +104,7 @@
     <t>target_amount</t>
   </si>
   <si>
-    <t>target_fees</t>
+    <t>fee_currency</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -442,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -519,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +527,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDFF433-2BAD-994E-8662-CF5793AE5261}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -539,7 +536,7 @@
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -553,13 +550,16 @@
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -570,18 +570,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -595,16 +593,19 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45351</v>
       </c>
@@ -617,14 +618,17 @@
       <c r="D2" s="7">
         <v>791.12</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45169</v>
       </c>
@@ -637,10 +641,13 @@
       <c r="D3" s="7">
         <v>493.55</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -654,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -667,25 +674,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -696,47 +703,50 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1887F8-5930-2F43-BE23-6AD91AA8E6F5}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
     </row>
   </sheetData>
